--- a/ob_to_p/data_otop.xlsx
+++ b/ob_to_p/data_otop.xlsx
@@ -4,12 +4,13 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -21,7 +22,28 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+  <si>
+    <t>$\tau$</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>$\sigma$</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>$\eta/s$</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>$T_{sw}$</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>$K$</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -62,8 +84,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -718,8 +743,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="Z2" sqref="Z2"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="X1" sqref="X1:X5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1204,7 +1229,7 @@
   <dimension ref="A1:W5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:W5"/>
+      <selection activeCell="P16" sqref="P16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1568,4 +1593,55 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:E2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" s="1">
+        <v>5.3011292189818517E-2</v>
+      </c>
+      <c r="B2" s="1">
+        <v>0.20194802010984744</v>
+      </c>
+      <c r="C2" s="1">
+        <v>1.5385532946160674</v>
+      </c>
+      <c r="D2" s="1">
+        <v>6.5286129795733838E-2</v>
+      </c>
+      <c r="E2" s="1">
+        <v>5.9903882343892829E-2</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
 </file>